--- a/exp_log.xlsx
+++ b/exp_log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdlab_admin/Documents/social_forage_task/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyx/Documents/social_forage_task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E17FD07-99AA-4A46-B5FA-C12A363DF9AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD875AD9-39F2-C845-99D7-796004155EB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="1500" windowWidth="28040" windowHeight="17040" xr2:uid="{7912F6B8-3F38-B245-BA6C-FF06B505C0DC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="12340" xr2:uid="{7912F6B8-3F38-B245-BA6C-FF06B505C0DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
